--- a/converted-data/excel/listovki_page_03.xlsx
+++ b/converted-data/excel/listovki_page_03.xlsx
@@ -493,14 +493,14 @@
         <is>
           <t>✅ Звичайно! Першокласний європейський крейдований папір від 115 до 350г/м².
 💰 А5: 100 шт — від 280 грн ⚡ 1-2 дні, 💰 1000 шт збірним тиражем — 800 грн за ⚡ тиждень.
-Чи маєте готовий для друку макет?</t>
+❓ Чи маєте готовий для друку макет?</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>✅ Конечно! Первоклассная мелованная бумага от 115 до 350г/м².
 💰 А5: 100 шт — от 280 грн ⚡ 1-2 дня, 💰 1000 шт — от 850 грн. сборным тиражем за ⚡ неделю.
-Есть ли у вас макет, готовый к печати?</t>
+❓ Есть ли у вас макет, готовый к печати?</t>
         </is>
       </c>
       <c r="G2" t="n">

--- a/converted-data/excel/listovki_page_03.xlsx
+++ b/converted-data/excel/listovki_page_03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>✅ Конечно! Первоклассная мелованная бумага от 115 до 350г/м².
-💰 А5: 100 шт — от 280 грн ⚡ 1-2 дня, 💰 1000 шт — от 850 грн. сборным тиражем за ⚡ неделю.
+💰 А5: 100 шт — от 280 грн ⚡ 1-2 дня, 💰 1000 шт сборным тиражем — от 850 грн. сборным тиражем за ⚡ неделю.
 ❓ Есть ли у вас макет, готовый к печати?</t>
         </is>
       </c>
@@ -524,18 +524,19 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Створюємо професійні стильні макети: доопрацювання готового — близько 300 грн, з нуля — від 400 грн.
-Макет залишається у вас назавжди, оплачується тільки при першому замовленні!
+          <t xml:space="preserve"> Створюємо професійні стильні макети: доопрацювання готового — близько 💰 300 грн, з нуля — від 💰 400 грн.
+Макет залишається у вас 🔒 назавжди, оплачується тільки при першому замовленні!
 У PDF, CDR, AI, EPS — професійно, не як у Canva.
-Портфоліо: https://t.me/druk_portfolio</t>
+📁 Портфоліо: https://t.me/druk_portfolio
+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Создаем профессиональные стильные макеты: доработка готового — около 300 грн, с нуля — от 400 грн.
-Макет остается у вас навсегда, оплачивается только при первом заказе!
+          <t>Создаем профессиональные стильные макеты: доработка готового — около 💰 300 грн, с нуля — от 💰 400 грн.
+Макет остается у вас 🔒 навсегда, оплачивается только при первом заказе!
 В PDF, CDR, AI, EPS — профессионально, не как в Canva.
-Портфолио: https://t.me/druk_portfolio</t>
+📁 Портфолио: https://t.me/druk_portfolio</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -571,7 +572,7 @@
         <is>
           <t>Отлично, что макет есть!
 PSD, Canva и Figma — классные программы для своих задач, но для первоклассной полиграфии мы используем 🎯 векторные форматы — они дают идеальное качество при печати. 
-Переведем ваш макет в профессиональный PDF/AI від 💰 200 грн, сохранив все детали.</t>
+Переведем ваш макет в профессиональный PDF/AI от 💰 200 грн, сохранив все детали.</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -599,19 +600,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Розуміємо, і це чудово! Ми дуже цінуємо роботу колег.
-Просто у нас такий підхід — ми відповідаємо за підсумкову якість на 100%, тому віддаємо перевагу векторним файлам.
+          <t>🤝 Розуміємо, і це чудово! Ми дуже цінуємо роботу колег.
+Просто у нас такий підхід — ми відповідаємо за підсумкову якість на 💯%, тому віддаємо перевагу векторним файлам.
 Можемо, звичайно, спробувати надрукувати і так цифровим друком, але тоді не зможемо гарантувати чіткість дрібних деталей та тексту.
 Переведемо у вектор від 💰 250 грн — і результат буде бездоганним.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Понимаем, и это здорово! Мы очень ценим работу коллег.
-Просто у нас такой подход — мы отвечаем за итоговое качество на 100%, поэтому предпочитаем векторные исходники.
+          <t>🤝 Понимаем, и это здорово! Мы очень ценим работу коллег.
+Просто у нас такой подход — мы отвечаем за итоговое качество на 💯%, поэтому предпочитаем векторные исходники.
 Также в сборных тиражах все макеты компонуются вместе — нужен универсальный формат.
 Можем, конечно, попробовать напечатать и так на цифровой машине, но тогда не сможем гарантировать четкость мелких деталей.
-Переведем в вектор от 💰 250 грн — и результат будет безупречным</t>
+Переведем в вектор от 💰 250 грн — и результат будет безупречным.</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -681,7 +682,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ламинация доступна на бумаге от 200г/м!
+          <t>Ламинация доступна на бумаге от 200г/м²!
 ✨ 4 вида: глянец, мат, софт тач, anti-scuff.
 Это делает листовки по-настоящему премиальными — приятные на ощупь, защищены от загрязнений.</t>
         </is>
@@ -712,14 +713,14 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>Чудово! Великі тиражі — наша сила.
-5000 шт — від 3200 грн, 10000 шт — від 5800 грн.
+А5: 5000 шт — від 3200 грн, 10000 шт — від 5800 грн.
 Розкажіть точний тираж — порахуємо найкращу ціну!</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Отлично! Большие тиражи — наша сила.
-5000 шт — от 3200 грн, 10000 шт — от 5800 грн.
+А5: 5000 шт — от 3200 грн, 10000 шт — от 5800 грн.
 Расскажите точный тираж — посчитаем лучшую цену!</t>
         </is>
       </c>
@@ -748,7 +749,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>💳 Працюємо за передоплатою - це чесно і прозоро.
+          <t>💳 Працюємо за передоплатою — це чесно і прозоро.
 🤝 Такий підхід дає нам змогу використовувати перевірені матеріали та відповідати за результат.</t>
         </is>
       </c>
@@ -760,6 +761,459 @@
       </c>
       <c r="G9" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>📏 Форматы листовок</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>формат,размер,А4,А5,А6,евро</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>📏 Друкуємо листівки в усіх популярних форматах!
+📄 А6 (105×148мм) — компактні листівки, поміщаються в гаманець
+📄 А5 (148×210мм) — золота середина, найпопулярніший формат
+📄 А4 (210×297мм) — великі листівки з детальною інформацією
+📄 Євро (99×210мм) — вузькі листівки для стендів і папок
+🎨 Нестандартні розміри — за вашими побажаннями
+💡 Розмір впливає на вартість — чим більше, тим дорожче!</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Печатаем листовки во всех популярных форматах!
+📄 А6 (105×148мм) — компактные листовки, помещаются в кошелек
+📄 А5 (148×210мм) — золотая середина, самый популярный формат
+📄 А4 (210×297мм) — большие листовки с детальной информацией
+📄 Евро (99×210мм) — узкие листовки для стендов и папок
+🎨 Нестандартные размеры — по вашим пожеланиям
+💡 Размер влияет на стоимость — чем больше, тем дороже!</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>⚡ Срочное изготовление</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>срочно,быстро,завтра,экспресс,за день</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>⚡ Експрес-виготовлення листівок цифровим друком!
+🚀 За 4-6 годин — до 1000 шт
+🏃 За 1 день — до 5000 шт при готовому макеті
+💨 За 2 дні — будь-який тираж до 10000 шт</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>⚡ Экспресс-изготовление листовок цифровой печатью!
+🚀 За 4-6 часов — до 500 шт
+🏃 За 1 день — до 5000 шт при готовом макете
+💨 За 2 дня — любой тираж до 10000 шт</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>🎨 Цифровая vs офсетная печать</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>цифровая печать,офсет,офсетная печать,разница</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>🎨 Дві технології друку на вибір:
+🖥️ Цифровий друк — для тиражів до 2000 шт
+⚡ Швидко, якісно, можна друкувати навіть 1 примірник
+🏭 Офсетний друк — для великих тиражів від 1000 шт
+💰 Дешевше при великих обсягах, ідеальна якість
+🎯 Ми підберемо оптимальний спосіб під ваш тираж!
+✨ Якість відмінна в обох випадках</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>🎨 Две технологии печати на выбор:
+🖥️ Цифровая печать — для тиражей до 2000 шт
+⚡ Быстро, качественно, можно печатать даже 1 экземпляр
+🏭 Офсетная печать — для больших тиражей от 1000 шт
+💰 Дешевле при больших объемах, идеальное качество
+🎯 Мы подберем оптимальный способ под ваш тираж!
+✨ Качество отличное в обоих случаях</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>🏢 Корпоративные листовки</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> корпоративные,фирменные,презентационные,бизнес</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>🏢 Корпоративні листівки — ваш фірмовий стиль!
+💼 Презентаційні матеріали для клієнтів
+📊 Прайс-листи, каталоги продукції
+🎯 Рекламні листівки з логотипом компанії
+📋 Інформаційні буклети про послуги
+✨ Обов'язково з ламінацією для преміального вигляду
+💡 Консультуємо по фірмовому стилю та дизайну
+Створимо матеріали, які підкреслять статус вашої компанії!</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>💼 Презентационные материалы для клиентов
+📊 Прайс-листы, каталоги продукции
+🎯 Рекламные листовки с логотипом компании
+📋 Информационные буклеты об услугах
+✨ Обязательно с ламинацией для премиального вида
+💡 Консультируем по фирменному стилю и дизайну
+Создадим материалы, которые подчеркнут статус вашей компании!</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>🌟 Рекламные листовки</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>реклама,промо,акция,скидки,распродажа</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>🌟 Рекламні листівки — ваш інструмент продажів!
+🛍️ Анонси акцій, розпродажів, знижок
+🎉 Промо-матеріали для заходів і фестивалів
+📢 Листівки для роздачі біля торгових центрів
+💥 Яскраві кольори та привабливий дизайн
+📈 Збільшують продажі та приваблюють клієнтів
+🎨 Допоможемо з створенням продаючого дизайну
+Зробимо так, щоб вашу листівку хотілося взяти!</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>🌟 Рекламные листовки — ваш инструмент продаж!
+🛍️ Анонсы акций, распродаж, скидок
+🎉 Промо-материалы для мероприятий и фестивалей
+📢 Листовки для раздачи у торговых центров
+💥 Яркие цвета и привлекательный дизайн
+📈 Увеличивают продажи и привлекают клиентов
+🎨 Поможем с созданием продающего дизайна
+Сделаем так, чтобы вашу листовку хотелось взять!</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>🎪 Листовки для мероприятий</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>мероприятия,события,концерт,фестиваль,конференция</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>🎪 Листівки для заходів — створюємо атмосферу!
+🎭 Концерти, фестивалі, вистави
+🏛️ Конференції, семінари, бізнес-заходи
+🎓 Освітні програми, курси, тренінги
+🎨 Стильний дизайн, що відображає дух заходу
+📅 Швидкі терміни виготовлення для масових заходів
+💡 Інформативність + естетика = успіх заходу
+Зробимо листівки, які точно не викинуть!</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 🎪 Листовки для мероприятий — создаем атмосферу!
+🎭 Концерты, фестивали, спектакли
+🏛️ Конференции, семинары, бизнес-события
+🎓 Образовательные программы, курсы, тренинги
+🎨 Стильный дизайн, отражающий дух мероприятия
+📅 Быстрые сроки изготовления для массовых событий
+💡 Информативность + эстетика = успех мероприятия
+Сделаем листовки, которые точно не выбросят!</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>💡 Односторонние vs двусторонние</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>односторонние,двусторонние,4+0,4+4,печать сторон</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>💡 Вибір сторін друку — важливе рішення!
+📄 Односторонні (4+0) — економний варіант
+✅ Для простих оголошень, анонсів, промо
+💰 Дешевше, швидше у виготовленні
+📄 Двосторонні (4+4) — максимум інформації
+✅ Для детальних каталогів, прайсів, буклетів
+💼 Солідніший вигляд, більше простору для контенту
+🎯 Підберемо оптимальний варіант під ваші цілі!</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>💡 Выбор сторон печати — важное решение!
+📄 Односторонние (4+0) — экономный вариант
+✅ Для простых объявлений, анонсов, промо
+💰 Дешевле, быстрее в изготовлении
+📄 Двусторонние (4+4) — максимум информации
+✅ Для детальных каталогов, прайсов, буклетов
+💼 Более солидный вид, больше места для контента
+🎯 Подберем оптимальный вариант под ваши цели!</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>🎯 Дизайн под ключ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>дизайн под ключ,создание дизайна,полный дизайн</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>🎯 Дизайн під ключ — від ідеї до готової листівки!
+💡 Аналіз вашого бізнесу та цільової аудиторії
+🎨 Розробка концепції та фірмового стилю
+🖼️ Підбір якісних зображень та ілюстрацій
+🌈 3 варіанти дизайну на вибір
+✨ Фінальна корекція за вашими побажаннями
+Вартість: від 💰 800 грн за комплексний дизайн.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>🎯 Дизайн под ключ — от идеи до готовой листовки!
+💡 Анализ вашего бизнеса и целевой аудитории
+🎨 Разработка концепции и фирменного стиля
+🖼️ Подбор качественных изображений и иллюстраций
+🌈 3 варианта дизайна на выбор
+✨ Финальная корректировка по вашим пожеланиям
+Стоимость: от 💰 800 грн за комплексный дизайн.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>🚚 Доставка листовок</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> доставка,курьер,новая почта,самовывоз</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>🚚 Доставляємо листівки по всій Україні!
+📦 Нова Пошта — від 75 грн, 1-2 дні
+🚕 Таксі по Харкову — 150 грн, у день готовності
+🏪 Самовивіз — безкоштовно, Харків, вул. Чернишевська, 8
+📄 Упаковуємо в захисні пакети — листівки приїдуть ідеальними
+💡 Великі тиражі — посилена упаковка в коробки
+При замовленні від 1500 грн доставка НП безкоштовна.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Доставляем листовки по всей Украине!
+📦 Новая Почта — от 75 грн, 1-2 дня
+🚕 Такси по Харькову — 150 грн, в день готовности
+🏪 Самовывоз — бесплатно, ул. Чернышевская, 8
+📄 Упаковываем в защитные пакеты — листовки приедут идеальными
+💡 Большие тиражи — усиленная упаковка в коробки
+При заказе от 1500 грн доставка НП бесплатная.</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>листовки</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>📋 Сборные тиражи</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>сборный тираж,экономия,дешевле,совместная печать</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>📋 Збірні тиражі — економія до 40%!
+🤝 Об'єднуємо замовлення кількох клієнтів
+💰 Значно дешевше за індивідуальний друк
+⏰ Терміни: 5-7 робочих днів
+📊 Мінімальний тираж: від 500 шт
+🎯 Ідеально для стандартних листівок А5, А6
+✨ Якість така ж висока, як при індивідуальному друці
+Заощаджуйте бюджет без втрати якості!</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>📋 Сборные тиражи — экономия до 40%!
+🤝 Объединяем заказы нескольких клиентов
+💰 Значительно дешевле индивидуальной печати
+⏰ Сроки: 5-7 рабочих дней
+📊 Минимальный тираж: от 500 шт
+🎯 Идеально для стандартных листовок А5, А6
+✨ Качество такое же высокое, как при индивидуальной печати
+Экономьте бюджет без потери качества!</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/converted-data/excel/listovki_page_03.xlsx
+++ b/converted-data/excel/listovki_page_03.xlsx
@@ -492,7 +492,7 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>✅ Звичайно! Першокласний європейський крейдований папір від 115 до 350г/м².
-💰 А5: 100 шт — від 280 грн ⚡ 1-2 дні, 💰 1000 шт збірним тиражем — 800 грн за ⚡ тиждень.
+💰 А5: 100 шт — від 280 грн ⚡ 1-2 дні, 💰 1000 шт збірним тиражем — 850 грн за ⚡ тиждень.
 ❓ Чи маєте готовий для друку макет?</t>
         </is>
       </c>
@@ -524,7 +524,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Створюємо професійні стильні макети: доопрацювання готового — близько 💰 300 грн, з нуля — від 💰 400 грн.
+          <t xml:space="preserve">Створюємо професійні стильні макети: доопрацювання готового — близько 💰 300 грн, з нуля — від 💰 400 грн.
 Макет залишається у вас 🔒 назавжди, оплачується тільки при першому замовленні!
 У PDF, CDR, AI, EPS — професійно, не як у Canva.
 📁 Портфоліо: https://t.me/druk_portfolio
@@ -795,7 +795,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Печатаем листовки во всех популярных форматах!
+          <t>📏  Печатаем листовки во всех популярных форматах!
 📄 А6 (105×148мм) — компактные листовки, помещаются в кошелек
 📄 А5 (148×210мм) — золотая середина, самый популярный формат
 📄 А4 (210×297мм) — большие листовки с детальной информацией
@@ -838,7 +838,7 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>⚡ Экспресс-изготовление листовок цифровой печатью!
-🚀 За 4-6 часов — до 500 шт
+🚀 За 4-6 часов — до 1000 шт
 🏃 За 1 день — до 5000 шт при готовом макете
 💨 За 2 дня — любой тираж до 10000 шт</t>
         </is>
@@ -925,7 +925,8 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>💼 Презентационные материалы для клиентов
+          <t>🏢 Корпоративные листовки — ваш фирмовий стиль!
+💼 Презентационные материалы для клиентов
 📊 Прайс-листы, каталоги продукции
 🎯 Рекламные листовки с логотипом компании
 📋 Информационные буклеты об услугах
@@ -1018,7 +1019,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 🎪 Листовки для мероприятий — создаем атмосферу!
+          <t>🎪 Листовки для мероприятий — создаем атмосферу!
 🎭 Концерты, фестивали, спектакли
 🏛️ Конференции, семинары, бизнес-события
 🎓 Образовательные программы, курсы, тренинги
